--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dang\Desktop\Cúng sao\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B09768-4D11-4290-A719-A185FB8B6298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="info"/>
-    <sheet r:id="rId2" sheetId="2" name="address"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="chu_ho" sheetId="3" r:id="rId2"/>
+    <sheet name="address" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t>Gia Đình</t>
   </si>
@@ -362,8 +369,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,53 +464,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -515,10 +530,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -556,71 +571,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,7 +663,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -671,11 +686,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -684,13 +699,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -700,7 +715,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -709,7 +724,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -718,7 +733,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -726,10 +741,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -794,24 +809,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="43" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -828,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -843,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -858,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -873,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -888,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
@@ -903,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -918,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -931,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -946,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -961,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
@@ -976,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -991,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
@@ -1006,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>43</v>
       </c>
@@ -1021,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -1036,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
@@ -1051,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
@@ -1066,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>51</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -1096,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>57</v>
       </c>
@@ -1124,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
@@ -1139,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>60</v>
       </c>
@@ -1154,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>62</v>
       </c>
@@ -1169,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>64</v>
       </c>
@@ -1184,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>66</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>69</v>
       </c>
@@ -1214,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>71</v>
       </c>
@@ -1229,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>73</v>
       </c>
@@ -1244,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>75</v>
       </c>
@@ -1259,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>77</v>
       </c>
@@ -1274,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>79</v>
       </c>
@@ -1289,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>81</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>83</v>
       </c>
@@ -1319,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>85</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>87</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>89</v>
       </c>
@@ -1364,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>91</v>
       </c>
@@ -1379,7 +1396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>93</v>
       </c>
@@ -1394,7 +1411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>95</v>
       </c>
@@ -1407,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>96</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -1437,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>99</v>
       </c>
@@ -1452,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>101</v>
       </c>
@@ -1467,7 +1484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
@@ -1482,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>105</v>
       </c>
@@ -1497,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>107</v>
       </c>
@@ -1512,7 +1529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>109</v>
       </c>
@@ -1525,7 +1542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>110</v>
       </c>
@@ -1538,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>111</v>
       </c>
@@ -1553,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>113</v>
       </c>
@@ -1574,7 +1591,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FA0739-4C83-439F-98E7-C80E41F67116}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1584,11 +1628,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="38.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1604,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1612,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1620,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1628,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1636,7 +1680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1644,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1652,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="9" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1660,7 +1704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="10" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1668,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="11" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1676,7 +1720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="56.25" customFormat="1" s="1">
+    <row r="12" spans="1:2" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1684,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="72.75" customFormat="1" s="1">
+    <row r="13" spans="1:2" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1692,7 +1736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="14" spans="1:2" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
